--- a/challenge.xlsx
+++ b/challenge.xlsx
@@ -14,16 +14,17 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="OrderByDescending" sheetId="9" r:id="rId6"/>
     <sheet name="OrderBy" sheetId="8" r:id="rId7"/>
-    <sheet name="GroupBy" sheetId="10" r:id="rId8"/>
-    <sheet name="Select" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId10"/>
+    <sheet name="Select" sheetId="11" r:id="rId8"/>
+    <sheet name="GroupBy" sheetId="13" r:id="rId9"/>
+    <sheet name="GroupBy_First" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="104">
   <si>
     <t>John</t>
   </si>
@@ -323,6 +324,18 @@
   </si>
   <si>
     <t>Pooja</t>
+  </si>
+  <si>
+    <t>Rajesh ,Anil ,Suresh ,Sneha</t>
+  </si>
+  <si>
+    <t>Priya ,Divya</t>
+  </si>
+  <si>
+    <t>Kavitha ,Manish</t>
+  </si>
+  <si>
+    <t>Arun ,Pooja</t>
   </si>
 </sst>
 </file>
@@ -931,10 +944,123 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <v>55000</v>
+      </c>
+      <c r="E2" s="11">
+        <v>43845</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3">
+        <v>48000</v>
+      </c>
+      <c r="E3" s="11">
+        <v>43647</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>52000</v>
+      </c>
+      <c r="E4" s="11">
+        <v>43424</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5">
+        <v>58000</v>
+      </c>
+      <c r="E5" s="11">
+        <v>44062</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4"/>
@@ -946,7 +1072,7 @@
       <c r="A1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -3215,7 +3341,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3251,15 +3377,6 @@
       <c r="C2" t="s">
         <v>83</v>
       </c>
-      <c r="D2">
-        <v>55000</v>
-      </c>
-      <c r="E2" s="11">
-        <v>43845</v>
-      </c>
-      <c r="F2" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
@@ -3271,54 +3388,93 @@
       <c r="C3" t="s">
         <v>86</v>
       </c>
-      <c r="D3">
-        <v>48000</v>
-      </c>
-      <c r="E3" s="11">
-        <v>43647</v>
-      </c>
-      <c r="F3" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4">
-        <v>52000</v>
-      </c>
-      <c r="E4" s="11">
-        <v>43424</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
         <v>109</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
         <v>98</v>
       </c>
-      <c r="D5">
-        <v>58000</v>
-      </c>
-      <c r="E5" s="11">
-        <v>44062</v>
-      </c>
-      <c r="F5" t="s">
-        <v>87</v>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3328,7 +3484,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3355,114 +3511,52 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>108</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>109</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>110</v>
-      </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>98</v>
-      </c>
+      <c r="E5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/challenge.xlsx
+++ b/challenge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="9048" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="9048" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Where" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,20 @@
     <sheet name="GroupBy" sheetId="13" r:id="rId9"/>
     <sheet name="GroupBy_First" sheetId="12" r:id="rId10"/>
     <sheet name="Sheet4" sheetId="7" r:id="rId11"/>
+    <sheet name="A" sheetId="14" r:id="rId12"/>
+    <sheet name="Join_Result" sheetId="17" r:id="rId13"/>
+    <sheet name="B" sheetId="15" r:id="rId14"/>
+    <sheet name="Simple Any" sheetId="21" r:id="rId15"/>
+    <sheet name="Any_Output" sheetId="20" r:id="rId16"/>
+    <sheet name="All_Output" sheetId="19" r:id="rId17"/>
+    <sheet name="All&amp;Any_Input" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="117">
   <si>
     <t>John</t>
   </si>
@@ -336,13 +343,52 @@
   </si>
   <si>
     <t>Arun ,Pooja</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Dept</t>
+  </si>
+  <si>
+    <t>Uipath</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>Don.net</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Sarah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -373,6 +419,17 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -438,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -471,6 +528,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,6 +1359,689 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1">
+      <c r="A1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1002</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1003</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1004</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1005</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1006</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1007</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1008</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1009</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1011</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1002</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1005</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1007</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1008</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1009</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1010</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1011</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1002</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1005</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1007</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1008</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>1009</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>1010</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>1011</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.8">
+      <c r="A1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="6">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="6">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="6">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="6">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3486,9 +4237,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">

--- a/challenge.xlsx
+++ b/challenge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="9048" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="9048" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Where" sheetId="2" r:id="rId1"/>
@@ -1535,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -1715,7 +1715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
